--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3386.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3386.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.337384175822628</v>
+        <v>2.220195055007935</v>
       </c>
       <c r="B1">
-        <v>2.486355130359487</v>
+        <v>6.182280540466309</v>
       </c>
       <c r="C1">
-        <v>3.112592887999197</v>
+        <v>2.29206371307373</v>
       </c>
       <c r="D1">
-        <v>3.671680129650422</v>
+        <v>1.501962423324585</v>
       </c>
       <c r="E1">
-        <v>2.415844793832746</v>
+        <v>1.235244154930115</v>
       </c>
     </row>
   </sheetData>
